--- a/biology/Botanique/Louis-Alexandre_Marnier-Lapostolle/Louis-Alexandre_Marnier-Lapostolle.xlsx
+++ b/biology/Botanique/Louis-Alexandre_Marnier-Lapostolle/Louis-Alexandre_Marnier-Lapostolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Alexandre Marnier-Lapostolle, né Louis-Alexandre Marnier le 4 mars 1857 à Sancerre et mort le 29 janvier 1930 à Saint-Jean-Cap-Ferrat, est un homme d'affaires et industriel français.                          
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Sylvain-Augustin Marnier, charron, et de Félicité Maréchal, Louis-Alexandre Marnier-Lapostolle est le créateur, en 1880, de la célèbre liqueur Grand Marnier, à base de liqueur d'oranges amères et de cognac[1],[2].
-Il fonde en 1919 le domaine viticole du château de Sancerre, d'une surface de 55 hectares[3].
-Il achète la villa Les Cèdres à Saint-Jean-Cap-Ferrat en 1924 et y crée un jardin botanique que son fils Julien (es), botaniste, va largement développer[4],[5].
-En 2016, la société Marnier-Lapostolle (SPML), qui détient la majorité du Grand Marnier et qui était toujours détenue par les héritiers de Marnier-Lapostolle, est vendue à Campari[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Sylvain-Augustin Marnier, charron, et de Félicité Maréchal, Louis-Alexandre Marnier-Lapostolle est le créateur, en 1880, de la célèbre liqueur Grand Marnier, à base de liqueur d'oranges amères et de cognac,.
+Il fonde en 1919 le domaine viticole du château de Sancerre, d'une surface de 55 hectares.
+Il achète la villa Les Cèdres à Saint-Jean-Cap-Ferrat en 1924 et y crée un jardin botanique que son fils Julien (es), botaniste, va largement développer,.
+En 2016, la société Marnier-Lapostolle (SPML), qui détient la majorité du Grand Marnier et qui était toujours détenue par les héritiers de Marnier-Lapostolle, est vendue à Campari.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (1902)[7].
- Chevalier de la Légion d'honneur (1894)[7].
- Chevalier de l'ordre d'Isabelle la Catholique (1888)[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (1902).
+ Chevalier de la Légion d'honneur (1894).
+ Chevalier de l'ordre d'Isabelle la Catholique (1888).</t>
         </is>
       </c>
     </row>
